--- a/Lesson 16/food.xlsx
+++ b/Lesson 16/food.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naza/PycharmProjects/Python_organized/Lessons/Lesson 16/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C6F38DD-679D-2842-B32E-500A14AF4BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FDA42B4-DBF1-5C48-8FF6-928C54949928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Food_List" sheetId="1" r:id="rId1"/>
-    <sheet name="Test" sheetId="2" r:id="rId2"/>
-    <sheet name="Test1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -644,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="N96" sqref="N96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7279,28 +7277,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>